--- a/flowers of  happiness db draft.xlsx
+++ b/flowers of  happiness db draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\flowers-of-happiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EE6E3A-171D-47B7-9E0F-CCD3A84DC152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9098F6C-55F9-4FE4-9BC7-F2F5D2F329B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{312428C2-0FCF-467C-8E48-6A3DB6AE3F0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{312428C2-0FCF-467C-8E48-6A3DB6AE3F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Как будут выглядить мои таб (3)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>цветы</t>
   </si>
@@ -138,6 +138,111 @@
   </si>
   <si>
     <t>много другой информации</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>clients.id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>orders_id</t>
+  </si>
+  <si>
+    <t>flowers_storage_id</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>packing</t>
+  </si>
+  <si>
+    <t>delivering</t>
+  </si>
+  <si>
+    <t>moscow</t>
+  </si>
+  <si>
+    <t>kiev</t>
+  </si>
+  <si>
+    <t>uruk</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>fl_flowers_storage Склад магазина</t>
+  </si>
+  <si>
+    <t>fl_orders заказы</t>
+  </si>
+  <si>
+    <t>fl_order_list содержимое заказов</t>
+  </si>
+  <si>
+    <t>fl_clients клиенты</t>
+  </si>
+  <si>
+    <t>Трава</t>
+  </si>
+  <si>
+    <t>Цена заказа будет формироваться с помощью кода</t>
+  </si>
+  <si>
+    <t>Промокод</t>
+  </si>
+  <si>
+    <t>Герберы фиолетовые</t>
+  </si>
+  <si>
+    <t>Герберы розовые</t>
+  </si>
+  <si>
+    <t>Герберы оранжевые</t>
+  </si>
+  <si>
+    <t>Герберы красные</t>
+  </si>
+  <si>
+    <t>Лилии розовые</t>
+  </si>
+  <si>
+    <t>Лилии белые</t>
+  </si>
+  <si>
+    <t>Пионы белые</t>
+  </si>
+  <si>
+    <t>Пионы красные</t>
+  </si>
+  <si>
+    <t>Розы белые</t>
+  </si>
+  <si>
+    <t>Розы красные</t>
+  </si>
+  <si>
+    <t>Тюльпаны красные</t>
+  </si>
+  <si>
+    <t>Тюльпаны желтые</t>
+  </si>
+  <si>
+    <t>Тюльпаны розовые</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -246,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -284,6 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -305,16 +411,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>737027</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>150775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38887</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>202481</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>73305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -336,14 +442,209 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457950" y="1905000"/>
-          <a:ext cx="7646950" cy="2515387"/>
+          <a:off x="6247920" y="4821983"/>
+          <a:ext cx="7588918" cy="2490322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>322860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104760</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Рукописный ввод 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CE35BE-DF60-436D-9A39-96D8821CE4DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4170960" y="313920"/>
+            <a:ext cx="417600" cy="2076840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Рукописный ввод 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CE35BE-DF60-436D-9A39-96D8821CE4DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4162320" y="304920"/>
+              <a:ext cx="435240" cy="2094480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1305555</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>310333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85980</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Рукописный ввод 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701A2283-FDDA-4F3B-9113-A4D2708FB9E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6801480" y="55800"/>
+            <a:ext cx="2628360" cy="220680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Рукописный ввод 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701A2283-FDDA-4F3B-9113-A4D2708FB9E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6792840" y="47160"/>
+              <a:ext cx="2646000" cy="238320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>229260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80310</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133860</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Рукописный ввод 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3E1EAD-0B38-47E8-865B-CDC4C7E96A9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9335160" y="161640"/>
+            <a:ext cx="136800" cy="162720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Рукописный ввод 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3E1EAD-0B38-47E8-865B-CDC4C7E96A9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9326520" y="152640"/>
+              <a:ext cx="154440" cy="180360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -395,6 +696,88 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-21T06:37:53.620"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">823 5768,'-5'-5,"1"-1,0 1,0-1,1 0,0 0,0-1,0 1,-2-10,-4-9,-97-270,46 116,-71-174,-135-402,91-38,162 723,-3-57,5 0,10-199,3 161,3 80,3 0,4 0,42-147,36-64,-16 123,4-15,-24 55,-22 58,100-223,-21 123,-73 120,21-20,-41 54,-1-1,28-46,-26 36,27-35,-29 43,0 0,26-51,-37 57</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1016.8">744 1,'374'0,"-373"0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 2,-2-1,1 1,-1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,-1 1,0-1,0 1,0 0,0-1,-1 0,1 1,-2 2,-57 94,36-61,1 0,2 1,1 2,-20 61,34-74</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-21T06:38:03.076"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7348 612,'-1'-2,"1"0,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1 0,1-1,-4-1,-30-17,-250-102,256 111,-492-182,402 154,-189-36,213 55,-20 0,-123-5,-52-8,174 19,0 5,-175 9,127 2,-2041-2,2170 3,1 1,-1 1,-59 18,-23 4,31-8,0 4,-128 51,199-68,-59 17,0-3,-131 18,-76 18,18 10,187-55,57-9,1 0,0 1,0 1,-19 6,-137 41,118-36,-87 32,93-24,-56 21,84-38</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-21T06:40:47.837"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">157 0,'26'32,"-1"0,-1 2,-2 1,30 63,12 19,-63-116,0 0,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,0 1,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,0-1,0 0,1 1,-4-1,-13 4,1-1,-1 0,-37-1,32-1,-165 22,166-23</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,290 +1077,507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12528F57-44AA-4708-A6F6-C237BBA53CA2}">
-  <dimension ref="A1:K23"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="E1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>120</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="1">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>150</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>150</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>180</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>180</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>300</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>300</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>250</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>250</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="1">
         <v>2</v>
       </c>
       <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>250</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="6"/>
+      <c r="F17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="4">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -991,7 +1591,7 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
